--- a/Figure_5.xlsx
+++ b/Figure_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofwaterloo-my.sharepoint.com/personal/moremus_uwaterloo_ca/Documents/2_Areas/Malak Tawfik/Ord_Log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{759F9EE9-BE11-42BB-8580-00EB20CF9363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{759F9EE9-BE11-42BB-8580-00EB20CF9363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A3B063A-17EF-4B89-B8B4-E8E461057288}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC64A9B8-321C-48BA-9B08-C33116690738}"/>
   </bookViews>
@@ -486,14 +486,14 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <f>C2/D2</f>
-        <v>0.75</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -507,11 +507,11 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E19" si="0">C3/D3</f>
-        <v>0.1875</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -525,11 +525,11 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -540,14 +540,14 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -558,14 +558,14 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -579,11 +579,11 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.1875</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
